--- a/tables/CZG_PhenT_GenTime.xlsx
+++ b/tables/CZG_PhenT_GenTime.xlsx
@@ -41,10 +41,10 @@
     <t xml:space="preserve">0.022</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1508</t>
+    <t xml:space="preserve"> 1.436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1511</t>
   </si>
   <si>
     <t xml:space="preserve">GenLength_y_IUCN.y</t>
@@ -56,25 +56,25 @@
     <t xml:space="preserve">0.002</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7763</t>
+    <t xml:space="preserve"> 0.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7925</t>
   </si>
   <si>
     <t xml:space="preserve">Pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.059</t>
+    <t xml:space="preserve">-0.057</t>
   </si>
   <si>
     <t xml:space="preserve">0.040</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1420</t>
+    <t xml:space="preserve">-1.425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1542</t>
   </si>
 </sst>
 </file>
